--- a/Dataset-Attributes.xlsx
+++ b/Dataset-Attributes.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridulbhandari/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridulbhandari/Documents/GitHubPersonal/CP4D-Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C076E-2106-4D42-A60F-0D6EEB161670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1461F7A8-048A-8E46-8D5A-C06742994961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{C2362DAA-2E59-6B48-B874-24578C39EE8A}"/>
+    <workbookView xWindow="18120" yWindow="0" windowWidth="17720" windowHeight="22400" activeTab="1" xr2:uid="{C2362DAA-2E59-6B48-B874-24578C39EE8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="492">
   <si>
     <t>account_summary</t>
   </si>
@@ -1389,13 +1391,201 @@
   </si>
   <si>
     <t>transaction_trading</t>
+  </si>
+  <si>
+    <t>Emerald City</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>B1Z</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>30 to 40</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>USA Indiana</t>
+  </si>
+  <si>
+    <t>Low priority</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Accumulating</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Physician</t>
+  </si>
+  <si>
+    <t>Capital Acquisition</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>satisfied</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>More Generous Investing</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Active Client</t>
+  </si>
+  <si>
+    <t>The Best Things in Life Are Not Fees</t>
+  </si>
+  <si>
+    <t>Brokerage</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Inactive Client</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>Random 300 to Arabic</t>
+  </si>
+  <si>
+    <t>Bring variation from 55-60</t>
+  </si>
+  <si>
+    <r>
+      <t>Wallet share</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and market </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>share</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> are two distinct terms. As described above, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wallet share</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> refers to how much of a customer's expenses for a category of product or service goes to a particular company. For example, a value-added reseller may have a 60% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wallet share</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> of a customer's spending on storage products.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://corporatefinanceinstitute.com/resources/knowledge/finance/interest-income/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1409,8 +1599,48 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1420,6 +1650,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,16 +1675,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1757,11 +2010,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35567470-0ADA-C84F-9DD7-BC89CB23940E}">
   <dimension ref="A1:BH120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AH1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
@@ -1797,7 +2050,7 @@
     <col min="34" max="34" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1901,7 +2154,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2031,7 +2284,7 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2135,7 +2388,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2239,7 +2492,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2343,7 +2596,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2447,7 +2700,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2545,7 +2798,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2643,7 +2896,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2735,7 +2988,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2827,7 +3080,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2919,7 +3172,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3011,7 +3264,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -3097,7 +3350,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:60">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3177,7 +3430,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3257,7 +3510,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3331,7 +3584,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3399,7 +3652,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3467,7 +3720,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3535,7 +3788,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3603,7 +3856,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -3671,7 +3924,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3739,7 +3992,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -3807,7 +4060,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3869,7 +4122,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3931,7 +4184,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3993,7 +4246,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -4055,7 +4308,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -4117,7 +4370,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -4179,7 +4432,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -4241,7 +4494,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -4303,7 +4556,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -4365,7 +4618,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -4427,7 +4680,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -4489,7 +4742,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -4551,7 +4804,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -4613,7 +4866,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -4675,7 +4928,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -4737,7 +4990,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -4799,7 +5052,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -4861,7 +5114,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -4923,7 +5176,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -4985,7 +5238,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -5047,7 +5300,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -5109,7 +5362,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -5171,7 +5424,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -5233,7 +5486,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -5295,7 +5548,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -5357,7 +5610,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -5419,7 +5672,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -5481,7 +5734,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -5537,7 +5790,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -5593,7 +5846,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -5649,7 +5902,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -5705,7 +5958,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -5761,7 +6014,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -5817,7 +6070,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -5873,7 +6126,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -5929,7 +6182,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -5985,7 +6238,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -6041,7 +6294,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28">
       <c r="C61" s="3" t="s">
         <v>43</v>
       </c>
@@ -6091,7 +6344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28">
       <c r="C62" s="3" t="s">
         <v>44</v>
       </c>
@@ -6141,7 +6394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28">
       <c r="C63" s="3" t="s">
         <v>45</v>
       </c>
@@ -6191,7 +6444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28">
       <c r="C64" s="3" t="s">
         <v>46</v>
       </c>
@@ -6241,7 +6494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:28">
       <c r="C65" s="3" t="s">
         <v>47</v>
       </c>
@@ -6291,7 +6544,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:28">
       <c r="C66" s="3" t="s">
         <v>48</v>
       </c>
@@ -6341,7 +6594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:28">
       <c r="C67" s="3" t="s">
         <v>49</v>
       </c>
@@ -6391,7 +6644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:28">
       <c r="C68" s="3" t="s">
         <v>50</v>
       </c>
@@ -6441,7 +6694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:28">
       <c r="C69" s="3" t="s">
         <v>51</v>
       </c>
@@ -6491,7 +6744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:28">
       <c r="C70" s="3" t="s">
         <v>52</v>
       </c>
@@ -6541,7 +6794,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:28">
       <c r="C71" s="3" t="s">
         <v>53</v>
       </c>
@@ -6591,7 +6844,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:28">
       <c r="C72" s="3" t="s">
         <v>54</v>
       </c>
@@ -6641,7 +6894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:28">
       <c r="C73" s="3" t="s">
         <v>55</v>
       </c>
@@ -6691,7 +6944,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:28">
       <c r="C74" s="3" t="s">
         <v>56</v>
       </c>
@@ -6741,7 +6994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:28">
       <c r="C75" s="3" t="s">
         <v>57</v>
       </c>
@@ -6791,7 +7044,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:28">
       <c r="C76" s="3" t="s">
         <v>58</v>
       </c>
@@ -6841,7 +7094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:28">
       <c r="C77" s="3" t="s">
         <v>59</v>
       </c>
@@ -6891,7 +7144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:28">
       <c r="E78" s="3" t="s">
         <v>37</v>
       </c>
@@ -6935,7 +7188,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:28">
       <c r="E79" s="3" t="s">
         <v>38</v>
       </c>
@@ -6979,7 +7232,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:28">
       <c r="E80" s="3" t="s">
         <v>39</v>
       </c>
@@ -7023,7 +7276,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:28">
       <c r="E81" s="3" t="s">
         <v>40</v>
       </c>
@@ -7067,7 +7320,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:28">
       <c r="E82" s="3" t="s">
         <v>41</v>
       </c>
@@ -7111,7 +7364,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:28">
       <c r="E83" s="3" t="s">
         <v>42</v>
       </c>
@@ -7155,7 +7408,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:28">
       <c r="E84" s="3" t="s">
         <v>43</v>
       </c>
@@ -7199,7 +7452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:28">
       <c r="E85" s="3" t="s">
         <v>44</v>
       </c>
@@ -7243,7 +7496,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:28">
       <c r="E86" s="3" t="s">
         <v>45</v>
       </c>
@@ -7287,7 +7540,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="87" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:28">
       <c r="E87" s="3" t="s">
         <v>46</v>
       </c>
@@ -7331,7 +7584,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:28">
       <c r="E88" s="3" t="s">
         <v>47</v>
       </c>
@@ -7369,7 +7622,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:28">
       <c r="E89" s="3" t="s">
         <v>48</v>
       </c>
@@ -7407,7 +7660,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:28">
       <c r="E90" s="3" t="s">
         <v>49</v>
       </c>
@@ -7445,7 +7698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:28">
       <c r="E91" s="3" t="s">
         <v>50</v>
       </c>
@@ -7483,7 +7736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:28">
       <c r="E92" s="3" t="s">
         <v>51</v>
       </c>
@@ -7521,7 +7774,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:28">
       <c r="E93" s="3" t="s">
         <v>52</v>
       </c>
@@ -7559,7 +7812,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:28">
       <c r="E94" s="3" t="s">
         <v>53</v>
       </c>
@@ -7597,7 +7850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:28">
       <c r="E95" s="3" t="s">
         <v>54</v>
       </c>
@@ -7635,7 +7888,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:28">
       <c r="E96" s="3" t="s">
         <v>55</v>
       </c>
@@ -7673,7 +7926,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="97" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:27">
       <c r="E97" s="3" t="s">
         <v>56</v>
       </c>
@@ -7711,7 +7964,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="98" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:27">
       <c r="E98" s="3" t="s">
         <v>57</v>
       </c>
@@ -7749,7 +8002,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="99" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:27">
       <c r="E99" s="3" t="s">
         <v>58</v>
       </c>
@@ -7781,7 +8034,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:27">
       <c r="E100" s="3" t="s">
         <v>59</v>
       </c>
@@ -7813,7 +8066,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:27">
       <c r="E101" s="3" t="s">
         <v>210</v>
       </c>
@@ -7839,7 +8092,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:27">
       <c r="E102" t="s">
         <v>211</v>
       </c>
@@ -7865,7 +8118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:27">
       <c r="E103" t="s">
         <v>212</v>
       </c>
@@ -7891,7 +8144,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:27">
       <c r="E104" t="s">
         <v>213</v>
       </c>
@@ -7917,7 +8170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:27">
       <c r="F105" s="3" t="s">
         <v>48</v>
       </c>
@@ -7937,7 +8190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:27">
       <c r="F106" s="3" t="s">
         <v>49</v>
       </c>
@@ -7957,7 +8210,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:27">
       <c r="F107" s="3" t="s">
         <v>50</v>
       </c>
@@ -7977,7 +8230,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:27">
       <c r="F108" s="3" t="s">
         <v>51</v>
       </c>
@@ -7997,7 +8250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:27">
       <c r="F109" s="3" t="s">
         <v>52</v>
       </c>
@@ -8017,7 +8270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:27">
       <c r="F110" s="3" t="s">
         <v>53</v>
       </c>
@@ -8037,7 +8290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:27">
       <c r="F111" s="3" t="s">
         <v>54</v>
       </c>
@@ -8057,7 +8310,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="5:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:27">
       <c r="F112" s="3" t="s">
         <v>55</v>
       </c>
@@ -8077,7 +8330,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:26">
       <c r="F113" s="3" t="s">
         <v>56</v>
       </c>
@@ -8097,7 +8350,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:26">
       <c r="F114" s="3" t="s">
         <v>57</v>
       </c>
@@ -8117,7 +8370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:26">
       <c r="F115" s="3" t="s">
         <v>58</v>
       </c>
@@ -8131,7 +8384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:26">
       <c r="F116" s="3" t="s">
         <v>59</v>
       </c>
@@ -8145,7 +8398,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:26">
       <c r="G117" s="3" t="s">
         <v>59</v>
       </c>
@@ -8153,7 +8406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:26">
       <c r="G118" t="s">
         <v>315</v>
       </c>
@@ -8161,7 +8414,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="119" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:26">
       <c r="G119" s="3" t="s">
         <v>316</v>
       </c>
@@ -8169,12 +8422,4461 @@
         <v>316</v>
       </c>
     </row>
-    <row r="120" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:26">
       <c r="G120" s="3" t="s">
         <v>317</v>
       </c>
       <c r="U120" t="s">
         <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65D88A0-2E21-AF41-94F8-F506E49372A8}">
+  <dimension ref="A1:F120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="173" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="C34" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="C35" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="C36" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="C37" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="C38" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="C39" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="C40" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="C41" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="C42" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="C43" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F56" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F57" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F63" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="20">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{7328B4FC-46E8-E24F-8F4D-D6D7DDBF2E3A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706C6D40-9B5A-0D49-8EB6-2D71E42C2E3E}">
+  <dimension ref="A1:CF22"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AP10" sqref="AP10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:84">
+      <c r="A1" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="AX1" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="AY1" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA1" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC1" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD1" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="BE1" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="BG1" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="BH1" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="BK1" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="BM1" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="BN1" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="BO1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR1" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="BS1" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:84">
+      <c r="A2" s="7">
+        <v>55.026993097801501</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F2" s="8">
+        <v>42161</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="O2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7">
+        <v>88936</v>
+      </c>
+      <c r="S2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7">
+        <v>1981</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="W2" s="7">
+        <v>676.99481913528098</v>
+      </c>
+      <c r="X2" s="7">
+        <v>0.193144071416786</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>42520</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>43102</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>43102</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>43102</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>68387</v>
+      </c>
+      <c r="AQ2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>83197</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>1334.04</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>4446.8</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>1015</v>
+      </c>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7">
+        <v>501.56916060815001</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="BG2" s="7">
+        <v>138826</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="BI2" s="8">
+        <v>43102</v>
+      </c>
+      <c r="BJ2" s="7">
+        <v>67</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="BL2" s="7">
+        <v>84892</v>
+      </c>
+      <c r="BM2" s="7">
+        <v>119167</v>
+      </c>
+      <c r="BN2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="BP2" s="8">
+        <v>43102</v>
+      </c>
+      <c r="BQ2" s="7"/>
+      <c r="BR2" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="BS2" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:84">
+      <c r="A6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:84">
+      <c r="A7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:84">
+      <c r="A8" s="7">
+        <v>8176.8407998971998</v>
+      </c>
+      <c r="B8" s="7">
+        <v>377.25362167881701</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="8">
+        <v>43131</v>
+      </c>
+      <c r="E8" s="7">
+        <v>538.03854056947398</v>
+      </c>
+      <c r="F8" s="7">
+        <v>417.62080488766401</v>
+      </c>
+      <c r="G8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8">
+        <v>43102</v>
+      </c>
+      <c r="J8" s="7">
+        <v>119953</v>
+      </c>
+      <c r="K8" s="8">
+        <v>43102</v>
+      </c>
+      <c r="L8" s="7">
+        <v>91103</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="N8" s="8">
+        <v>43102</v>
+      </c>
+      <c r="O8" s="7">
+        <v>684.88343637426999</v>
+      </c>
+      <c r="P8" s="7">
+        <v>384.06730840793603</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>419.31797512897901</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="S8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" s="7">
+        <v>1</v>
+      </c>
+      <c r="V8" s="8">
+        <v>43101</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="X8" s="8">
+        <v>43102</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>741.53069549320503</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>325.30561804743297</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>170.958863198317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:84">
+      <c r="A9" s="7">
+        <v>8176.8407998971998</v>
+      </c>
+      <c r="B9" s="7">
+        <v>292.28075802383302</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="8">
+        <v>43131</v>
+      </c>
+      <c r="E9" s="7">
+        <v>858.67650674996105</v>
+      </c>
+      <c r="F9" s="7">
+        <v>826.24338355261602</v>
+      </c>
+      <c r="G9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>128</v>
+      </c>
+      <c r="I9" s="8">
+        <v>43102</v>
+      </c>
+      <c r="J9" s="7">
+        <v>62139</v>
+      </c>
+      <c r="K9" s="8">
+        <v>43102</v>
+      </c>
+      <c r="L9" s="7">
+        <v>66736</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="N9" s="8">
+        <v>43102</v>
+      </c>
+      <c r="O9" s="7">
+        <v>133.52873275730099</v>
+      </c>
+      <c r="P9" s="7">
+        <v>763.89119075644305</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>127.655992123529</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="S9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0</v>
+      </c>
+      <c r="V9" s="8">
+        <v>43101</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="X9" s="8">
+        <v>43102</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>125.424562614636</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>190.54540908672499</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>775.48162049081895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:84">
+      <c r="A10" s="7">
+        <v>8176.8407998971998</v>
+      </c>
+      <c r="B10" s="7">
+        <v>619.62492137331503</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="8">
+        <v>43131</v>
+      </c>
+      <c r="E10" s="7">
+        <v>466.65155730292997</v>
+      </c>
+      <c r="F10" s="7">
+        <v>928.86422516523203</v>
+      </c>
+      <c r="G10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>148</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7">
+        <v>98216</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7">
+        <v>98992</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8">
+        <v>43304</v>
+      </c>
+      <c r="O10" s="7">
+        <v>761.40646202415803</v>
+      </c>
+      <c r="P10" s="7">
+        <v>7.0688267456645502</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>66.311322499872006</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="S10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <v>0</v>
+      </c>
+      <c r="V10" s="8">
+        <v>43101</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="X10" s="8">
+        <v>43102</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>916.72507453499099</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>827.92137341935302</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>551.05975061653101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:84">
+      <c r="A12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:84">
+      <c r="A13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BG13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="BH13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BI13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="BJ13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BL13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="BM13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="BQ13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="BR13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="BS13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="BT13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="BU13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="BV13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="BW13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="BX13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="BY13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BZ13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="CA13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="CB13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="CC13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="CD13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="CE13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="CF13" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:84">
+      <c r="A14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>43131</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>893.41036807084004</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>99</v>
+      </c>
+      <c r="L14" s="7">
+        <v>99</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>2</v>
+      </c>
+      <c r="P14" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>99</v>
+      </c>
+      <c r="R14" s="7">
+        <v>1</v>
+      </c>
+      <c r="S14" s="7">
+        <v>1</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>99</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7">
+        <v>99</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>99</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="AJ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="8">
+        <v>43101</v>
+      </c>
+      <c r="AU14" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="AV14" s="7">
+        <v>3168.3889254558699</v>
+      </c>
+      <c r="AW14" s="7">
+        <v>190601.30009509801</v>
+      </c>
+      <c r="AX14" s="7">
+        <v>5718.03900285294</v>
+      </c>
+      <c r="AY14" s="7">
+        <v>768.52352751596504</v>
+      </c>
+      <c r="AZ14" s="7">
+        <v>792.89121118371497</v>
+      </c>
+      <c r="BA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="7">
+        <v>630.89097655565604</v>
+      </c>
+      <c r="BC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="7">
+        <v>4</v>
+      </c>
+      <c r="BE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="7">
+        <v>99</v>
+      </c>
+      <c r="BH14" s="7">
+        <v>1072566.38537375</v>
+      </c>
+      <c r="BI14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="7">
+        <v>283526.45242837502</v>
+      </c>
+      <c r="BL14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="7"/>
+      <c r="BN14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="7"/>
+      <c r="BP14" s="7">
+        <v>99</v>
+      </c>
+      <c r="BQ14" s="7">
+        <v>848.19913462107104</v>
+      </c>
+      <c r="BR14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BS14" s="7">
+        <v>2</v>
+      </c>
+      <c r="BT14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BV14" s="7">
+        <v>1</v>
+      </c>
+      <c r="BW14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BY14" s="7">
+        <v>191000</v>
+      </c>
+      <c r="BZ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="CA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="CB14" s="7"/>
+      <c r="CC14" s="7">
+        <v>1</v>
+      </c>
+      <c r="CD14" s="7"/>
+      <c r="CE14" s="7">
+        <v>191000</v>
+      </c>
+      <c r="CF14" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:84">
+      <c r="A15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <v>43159</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>507.77885499772299</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>99</v>
+      </c>
+      <c r="L15" s="7">
+        <v>99</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>2</v>
+      </c>
+      <c r="P15" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>99</v>
+      </c>
+      <c r="R15" s="7">
+        <v>3</v>
+      </c>
+      <c r="S15" s="7">
+        <v>2</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>99</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0</v>
+      </c>
+      <c r="X15" s="7">
+        <v>99</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>99</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="7">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="AJ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="8">
+        <v>43132</v>
+      </c>
+      <c r="AU15" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="AV15" s="7">
+        <v>1340.50836367947</v>
+      </c>
+      <c r="AW15" s="7">
+        <v>113520.821603622</v>
+      </c>
+      <c r="AX15" s="7">
+        <v>3629.63724976495</v>
+      </c>
+      <c r="AY15" s="7">
+        <v>275.60158067997702</v>
+      </c>
+      <c r="AZ15" s="7">
+        <v>472.544087380625</v>
+      </c>
+      <c r="BA15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="7">
+        <v>4127.1740984979097</v>
+      </c>
+      <c r="BC15" s="7">
+        <v>7467.0867218764197</v>
+      </c>
+      <c r="BD15" s="7">
+        <v>7</v>
+      </c>
+      <c r="BE15" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="BF15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="7">
+        <v>792</v>
+      </c>
+      <c r="BH15" s="7">
+        <v>1076101.1967766299</v>
+      </c>
+      <c r="BI15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="7">
+        <v>176880.35485100999</v>
+      </c>
+      <c r="BL15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="7"/>
+      <c r="BN15" s="7">
+        <v>2</v>
+      </c>
+      <c r="BO15" s="7"/>
+      <c r="BP15" s="7">
+        <v>99</v>
+      </c>
+      <c r="BQ15" s="7">
+        <v>349.79466183473801</v>
+      </c>
+      <c r="BR15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="7">
+        <v>2</v>
+      </c>
+      <c r="BT15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="7">
+        <v>1</v>
+      </c>
+      <c r="BW15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="7">
+        <v>1</v>
+      </c>
+      <c r="BY15" s="7">
+        <v>114000</v>
+      </c>
+      <c r="BZ15" s="7">
+        <v>7000</v>
+      </c>
+      <c r="CA15" s="7">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="7"/>
+      <c r="CC15" s="7">
+        <v>1</v>
+      </c>
+      <c r="CD15" s="7"/>
+      <c r="CE15" s="7">
+        <v>121000</v>
+      </c>
+      <c r="CF15" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:84">
+      <c r="A16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>43190</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>132.00826607633701</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>99</v>
+      </c>
+      <c r="L16" s="7">
+        <v>99</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>2</v>
+      </c>
+      <c r="P16" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>99</v>
+      </c>
+      <c r="R16" s="7">
+        <v>6</v>
+      </c>
+      <c r="S16" s="7">
+        <v>5</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>99</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <v>99</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>99</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>3</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="8">
+        <v>43160</v>
+      </c>
+      <c r="AU16" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>404.08681822602301</v>
+      </c>
+      <c r="AW16" s="7">
+        <v>71094.963947663695</v>
+      </c>
+      <c r="AX16" s="7">
+        <v>2425.72857905521</v>
+      </c>
+      <c r="AY16" s="7">
+        <v>857.05501814873196</v>
+      </c>
+      <c r="AZ16" s="7">
+        <v>294.80059141835102</v>
+      </c>
+      <c r="BA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="7">
+        <v>2778.0664523908899</v>
+      </c>
+      <c r="BC16" s="7">
+        <v>9762.6553541768008</v>
+      </c>
+      <c r="BD16" s="7">
+        <v>7</v>
+      </c>
+      <c r="BE16" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="BF16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="7">
+        <v>396</v>
+      </c>
+      <c r="BH16" s="7">
+        <v>1079627.03202036</v>
+      </c>
+      <c r="BI16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="7">
+        <v>116295.815048865</v>
+      </c>
+      <c r="BL16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="7"/>
+      <c r="BN16" s="7">
+        <v>2</v>
+      </c>
+      <c r="BO16" s="7"/>
+      <c r="BP16" s="7">
+        <v>99</v>
+      </c>
+      <c r="BQ16" s="7">
+        <v>970.452323953318</v>
+      </c>
+      <c r="BR16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BS16" s="7">
+        <v>2</v>
+      </c>
+      <c r="BT16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BV16" s="7">
+        <v>1</v>
+      </c>
+      <c r="BW16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="7">
+        <v>1</v>
+      </c>
+      <c r="BY16" s="7">
+        <v>71000</v>
+      </c>
+      <c r="BZ16" s="7">
+        <v>10000</v>
+      </c>
+      <c r="CA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="CB16" s="7"/>
+      <c r="CC16" s="7">
+        <v>4</v>
+      </c>
+      <c r="CD16" s="7"/>
+      <c r="CE16" s="7">
+        <v>81000</v>
+      </c>
+      <c r="CF16" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:84">
+      <c r="A17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>43220</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>469.78809375210898</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7">
+        <v>99</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>2</v>
+      </c>
+      <c r="P17" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>99</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>3</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <v>99</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <v>99</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>99</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>4</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="AJ17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="8">
+        <v>43191</v>
+      </c>
+      <c r="AU17" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="AV17" s="7">
+        <v>1633.57670999731</v>
+      </c>
+      <c r="AW17" s="7">
+        <v>46996.504309377196</v>
+      </c>
+      <c r="AX17" s="7">
+        <v>1409.8951292813199</v>
+      </c>
+      <c r="AY17" s="7">
+        <v>1195.4457245783201</v>
+      </c>
+      <c r="AZ17" s="7">
+        <v>193.82635841477401</v>
+      </c>
+      <c r="BA17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="7">
+        <v>133.16306052302301</v>
+      </c>
+      <c r="BC17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="7">
+        <v>4</v>
+      </c>
+      <c r="BE17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="7">
+        <v>594</v>
+      </c>
+      <c r="BH17" s="7">
+        <v>1079515.89045388</v>
+      </c>
+      <c r="BI17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="7">
+        <v>69055.006112483199</v>
+      </c>
+      <c r="BL17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="7"/>
+      <c r="BN17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="7"/>
+      <c r="BP17" s="7">
+        <v>99</v>
+      </c>
+      <c r="BQ17" s="7">
+        <v>54.1681863665912</v>
+      </c>
+      <c r="BR17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="7">
+        <v>2</v>
+      </c>
+      <c r="BT17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="7">
+        <v>1</v>
+      </c>
+      <c r="BW17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="7">
+        <v>47000</v>
+      </c>
+      <c r="BZ17" s="7">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="7">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="7"/>
+      <c r="CC17" s="7">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="7"/>
+      <c r="CE17" s="7">
+        <v>47000</v>
+      </c>
+      <c r="CF17" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:84">
+      <c r="A18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>43251</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>627.03744587347398</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>99</v>
+      </c>
+      <c r="L18" s="7">
+        <v>99</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>2</v>
+      </c>
+      <c r="P18" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>99</v>
+      </c>
+      <c r="R18" s="7">
+        <v>4</v>
+      </c>
+      <c r="S18" s="7">
+        <v>5</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <v>99</v>
+      </c>
+      <c r="W18" s="7">
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <v>99</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>99</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="AJ18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="8">
+        <v>43221</v>
+      </c>
+      <c r="AU18" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="AV18" s="7">
+        <v>352.299411218849</v>
+      </c>
+      <c r="AW18" s="7">
+        <v>28004.421307356701</v>
+      </c>
+      <c r="AX18" s="7">
+        <v>840.13263922070098</v>
+      </c>
+      <c r="AY18" s="7">
+        <v>956.04715590854596</v>
+      </c>
+      <c r="AZ18" s="7">
+        <v>115.091676854139</v>
+      </c>
+      <c r="BA18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="7">
+        <v>-748.117128986544</v>
+      </c>
+      <c r="BC18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="7">
+        <v>4</v>
+      </c>
+      <c r="BE18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="7">
+        <v>693</v>
+      </c>
+      <c r="BH18" s="7">
+        <v>1079486.6127464401</v>
+      </c>
+      <c r="BI18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="7">
+        <v>41769.424226670402</v>
+      </c>
+      <c r="BL18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="7"/>
+      <c r="BN18" s="7">
+        <v>1</v>
+      </c>
+      <c r="BO18" s="7"/>
+      <c r="BP18" s="7">
+        <v>99</v>
+      </c>
+      <c r="BQ18" s="7">
+        <v>236.37160234478799</v>
+      </c>
+      <c r="BR18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="7">
+        <v>2</v>
+      </c>
+      <c r="BT18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BV18" s="7">
+        <v>1</v>
+      </c>
+      <c r="BW18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BY18" s="7">
+        <v>28000</v>
+      </c>
+      <c r="BZ18" s="7">
+        <v>0</v>
+      </c>
+      <c r="CA18" s="7">
+        <v>0</v>
+      </c>
+      <c r="CB18" s="7"/>
+      <c r="CC18" s="7">
+        <v>3</v>
+      </c>
+      <c r="CD18" s="7"/>
+      <c r="CE18" s="7">
+        <v>28000</v>
+      </c>
+      <c r="CF18" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:84">
+      <c r="A19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8">
+        <v>43281</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>509.04522339001801</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>99</v>
+      </c>
+      <c r="L19" s="7">
+        <v>99</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>2</v>
+      </c>
+      <c r="P19" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>99</v>
+      </c>
+      <c r="R19" s="7">
+        <v>3</v>
+      </c>
+      <c r="S19" s="7">
+        <v>2</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>99</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <v>99</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>99</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>6</v>
+      </c>
+      <c r="AH19" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="8">
+        <v>43252</v>
+      </c>
+      <c r="AU19" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="AV19" s="7">
+        <v>411.17670782633701</v>
+      </c>
+      <c r="AW19" s="7">
+        <v>17138.758124335502</v>
+      </c>
+      <c r="AX19" s="7">
+        <v>636.28049078050606</v>
+      </c>
+      <c r="AY19" s="7">
+        <v>1077.47108416836</v>
+      </c>
+      <c r="AZ19" s="7">
+        <v>69.615707044450602</v>
+      </c>
+      <c r="BA19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="7">
+        <v>1506.20185541</v>
+      </c>
+      <c r="BC19" s="7">
+        <v>4070.5915683480598</v>
+      </c>
+      <c r="BD19" s="7">
+        <v>7</v>
+      </c>
+      <c r="BE19" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="BF19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="7">
+        <v>396</v>
+      </c>
+      <c r="BH19" s="7">
+        <v>1081728.7246852301</v>
+      </c>
+      <c r="BI19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="7">
+        <v>29437.1677540694</v>
+      </c>
+      <c r="BL19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="7"/>
+      <c r="BN19" s="7">
+        <v>1</v>
+      </c>
+      <c r="BO19" s="7"/>
+      <c r="BP19" s="7">
+        <v>99</v>
+      </c>
+      <c r="BQ19" s="7">
+        <v>487.54709499464701</v>
+      </c>
+      <c r="BR19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BS19" s="7">
+        <v>2</v>
+      </c>
+      <c r="BT19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BV19" s="7">
+        <v>1</v>
+      </c>
+      <c r="BW19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX19" s="7">
+        <v>1</v>
+      </c>
+      <c r="BY19" s="7">
+        <v>17000</v>
+      </c>
+      <c r="BZ19" s="7">
+        <v>4000</v>
+      </c>
+      <c r="CA19" s="7">
+        <v>0</v>
+      </c>
+      <c r="CB19" s="7"/>
+      <c r="CC19" s="7">
+        <v>2</v>
+      </c>
+      <c r="CD19" s="7"/>
+      <c r="CE19" s="7">
+        <v>21000</v>
+      </c>
+      <c r="CF19" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:84">
+      <c r="A20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>43312</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H20" s="7">
+        <v>3</v>
+      </c>
+      <c r="I20" s="7">
+        <v>518.81969366322596</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>99</v>
+      </c>
+      <c r="L20" s="7">
+        <v>99</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>2</v>
+      </c>
+      <c r="P20" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>99</v>
+      </c>
+      <c r="R20" s="7">
+        <v>3</v>
+      </c>
+      <c r="S20" s="7">
+        <v>4</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
+        <v>99</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
+      <c r="X20" s="7">
+        <v>99</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>99</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>7</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="8">
+        <v>43282</v>
+      </c>
+      <c r="AU20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="AV20" s="7">
+        <v>661.45648241889103</v>
+      </c>
+      <c r="AW20" s="7">
+        <v>11868.730119284301</v>
+      </c>
+      <c r="AX20" s="7">
+        <v>645.557360915142</v>
+      </c>
+      <c r="AY20" s="7">
+        <v>234.65754414136401</v>
+      </c>
+      <c r="AZ20" s="7">
+        <v>49.061946256782299</v>
+      </c>
+      <c r="BA20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="7">
+        <v>1694.7736053281999</v>
+      </c>
+      <c r="BC20" s="7">
+        <v>9649.8485778870909</v>
+      </c>
+      <c r="BD20" s="7">
+        <v>7</v>
+      </c>
+      <c r="BE20" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="BF20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="7">
+        <v>1083045.76129854</v>
+      </c>
+      <c r="BI20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="7">
+        <v>26840.549220651399</v>
+      </c>
+      <c r="BL20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="7"/>
+      <c r="BN20" s="7">
+        <v>2</v>
+      </c>
+      <c r="BO20" s="7"/>
+      <c r="BP20" s="7">
+        <v>99</v>
+      </c>
+      <c r="BQ20" s="7">
+        <v>771.16063344855297</v>
+      </c>
+      <c r="BR20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BS20" s="7">
+        <v>2</v>
+      </c>
+      <c r="BT20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BV20" s="7">
+        <v>1</v>
+      </c>
+      <c r="BW20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX20" s="7">
+        <v>1</v>
+      </c>
+      <c r="BY20" s="7">
+        <v>11000</v>
+      </c>
+      <c r="BZ20" s="7">
+        <v>10000</v>
+      </c>
+      <c r="CA20" s="7">
+        <v>0</v>
+      </c>
+      <c r="CB20" s="7"/>
+      <c r="CC20" s="7">
+        <v>1</v>
+      </c>
+      <c r="CD20" s="7"/>
+      <c r="CE20" s="7">
+        <v>21000</v>
+      </c>
+      <c r="CF20" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:84">
+      <c r="A21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <v>43343</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>80.523263220133799</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>99</v>
+      </c>
+      <c r="L21" s="7">
+        <v>99</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>2</v>
+      </c>
+      <c r="P21" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>99</v>
+      </c>
+      <c r="R21" s="7">
+        <v>2</v>
+      </c>
+      <c r="S21" s="7">
+        <v>5</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0</v>
+      </c>
+      <c r="V21" s="7">
+        <v>99</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0</v>
+      </c>
+      <c r="X21" s="7">
+        <v>99</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>99</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>8</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="8">
+        <v>43313</v>
+      </c>
+      <c r="AU21" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="AV21" s="7">
+        <v>192.39745397162201</v>
+      </c>
+      <c r="AW21" s="7">
+        <v>11029.8491748258</v>
+      </c>
+      <c r="AX21" s="7">
+        <v>330.89547524477302</v>
+      </c>
+      <c r="AY21" s="7">
+        <v>734.07371641299403</v>
+      </c>
+      <c r="AZ21" s="7">
+        <v>44.734248701085697</v>
+      </c>
+      <c r="BA21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="7">
+        <v>1698.4315141346899</v>
+      </c>
+      <c r="BC21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="7">
+        <v>4</v>
+      </c>
+      <c r="BE21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="7">
+        <v>792</v>
+      </c>
+      <c r="BH21" s="7">
+        <v>1085330.60332382</v>
+      </c>
+      <c r="BI21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="7">
+        <v>16397.110556968099</v>
+      </c>
+      <c r="BL21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="7"/>
+      <c r="BN21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="7"/>
+      <c r="BP21" s="7">
+        <v>99</v>
+      </c>
+      <c r="BQ21" s="7">
+        <v>348.10822406479201</v>
+      </c>
+      <c r="BR21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BS21" s="7">
+        <v>2</v>
+      </c>
+      <c r="BT21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="7">
+        <v>1</v>
+      </c>
+      <c r="BW21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="7">
+        <v>11000</v>
+      </c>
+      <c r="BZ21" s="7">
+        <v>0</v>
+      </c>
+      <c r="CA21" s="7">
+        <v>0</v>
+      </c>
+      <c r="CB21" s="7"/>
+      <c r="CC21" s="7">
+        <v>2</v>
+      </c>
+      <c r="CD21" s="7"/>
+      <c r="CE21" s="7">
+        <v>11000</v>
+      </c>
+      <c r="CF21" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:84">
+      <c r="A22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>43373</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>776.46912621739796</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>99</v>
+      </c>
+      <c r="L22" s="7">
+        <v>99</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>2</v>
+      </c>
+      <c r="P22" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>99</v>
+      </c>
+      <c r="R22" s="7">
+        <v>1</v>
+      </c>
+      <c r="S22" s="7">
+        <v>2</v>
+      </c>
+      <c r="T22" s="7">
+        <v>0</v>
+      </c>
+      <c r="U22" s="7">
+        <v>0</v>
+      </c>
+      <c r="V22" s="7">
+        <v>99</v>
+      </c>
+      <c r="W22" s="7">
+        <v>0</v>
+      </c>
+      <c r="X22" s="7">
+        <v>99</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>99</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>9</v>
+      </c>
+      <c r="AH22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="AJ22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="8">
+        <v>43344</v>
+      </c>
+      <c r="AU22" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="AV22" s="7">
+        <v>12.9499271028255</v>
+      </c>
+      <c r="AW22" s="7">
+        <v>6843.69056454571</v>
+      </c>
+      <c r="AX22" s="7">
+        <v>205.31071693637099</v>
+      </c>
+      <c r="AY22" s="7">
+        <v>712.11585439615897</v>
+      </c>
+      <c r="AZ22" s="7">
+        <v>27.328517594946899</v>
+      </c>
+      <c r="BA22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="7">
+        <v>882.11120525607396</v>
+      </c>
+      <c r="BC22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="7">
+        <v>4</v>
+      </c>
+      <c r="BE22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="7">
+        <v>1086939.20897396</v>
+      </c>
+      <c r="BI22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="7">
+        <v>10279.914437310699</v>
+      </c>
+      <c r="BL22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="7"/>
+      <c r="BN22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="7"/>
+      <c r="BP22" s="7">
+        <v>99</v>
+      </c>
+      <c r="BQ22" s="7">
+        <v>693.35300382634205</v>
+      </c>
+      <c r="BR22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BS22" s="7">
+        <v>2</v>
+      </c>
+      <c r="BT22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BV22" s="7">
+        <v>1</v>
+      </c>
+      <c r="BW22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BY22" s="7">
+        <v>7000</v>
+      </c>
+      <c r="BZ22" s="7">
+        <v>0</v>
+      </c>
+      <c r="CA22" s="7">
+        <v>0</v>
+      </c>
+      <c r="CB22" s="7"/>
+      <c r="CC22" s="7">
+        <v>1</v>
+      </c>
+      <c r="CD22" s="7"/>
+      <c r="CE22" s="7">
+        <v>7000</v>
+      </c>
+      <c r="CF22" s="7" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset-Attributes.xlsx
+++ b/Dataset-Attributes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridulbhandari/Documents/GitHubPersonal/CP4D-Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1461F7A8-048A-8E46-8D5A-C06742994961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E919093A-2A7A-BC42-93BA-B4C280821EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18120" yWindow="0" windowWidth="17720" windowHeight="22400" activeTab="1" xr2:uid="{C2362DAA-2E59-6B48-B874-24578C39EE8A}"/>
+    <workbookView xWindow="18120" yWindow="0" windowWidth="17720" windowHeight="22400" xr2:uid="{C2362DAA-2E59-6B48-B874-24578C39EE8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1640,7 +1640,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1659,12 +1659,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1679,7 +1673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1692,7 +1686,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2010,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35567470-0ADA-C84F-9DD7-BC89CB23940E}">
   <dimension ref="A1:BH120"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G120"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8439,8 +8432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65D88A0-2E21-AF41-94F8-F506E49372A8}">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="173" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="B1" zoomScale="108" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8483,7 +8476,7 @@
         <v>147</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D3" s="4"/>
@@ -8524,7 +8517,7 @@
       <c r="B6" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D6" s="4"/>
@@ -8537,7 +8530,7 @@
         <v>150</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>146</v>
       </c>
       <c r="D7" s="4"/>
@@ -8563,7 +8556,7 @@
         <v>152</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>218</v>
       </c>
       <c r="D9" s="4"/>
@@ -8576,7 +8569,7 @@
         <v>153</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="4"/>
@@ -8589,7 +8582,7 @@
         <v>154</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>219</v>
       </c>
       <c r="D11" s="4"/>
@@ -8602,7 +8595,7 @@
         <v>155</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>220</v>
       </c>
       <c r="D12" s="4"/>
@@ -8615,7 +8608,7 @@
         <v>156</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>221</v>
       </c>
       <c r="D13" s="4"/>
@@ -8628,7 +8621,7 @@
         <v>157</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D14" s="4"/>
@@ -8641,7 +8634,7 @@
         <v>158</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>159</v>
       </c>
       <c r="D15" s="4"/>
@@ -8654,7 +8647,7 @@
         <v>162</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>223</v>
       </c>
       <c r="D16" s="4"/>
@@ -8667,7 +8660,7 @@
         <v>174</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="9" t="s">
         <v>161</v>
       </c>
       <c r="D17" s="4"/>
@@ -8680,7 +8673,7 @@
         <v>175</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="9" t="s">
         <v>224</v>
       </c>
       <c r="D18" s="4"/>
@@ -8693,7 +8686,7 @@
         <v>78</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="9" t="s">
         <v>225</v>
       </c>
       <c r="D19" s="4"/>
@@ -8706,7 +8699,7 @@
         <v>176</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D20" s="4"/>
@@ -8719,7 +8712,7 @@
         <v>177</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="9" t="s">
         <v>227</v>
       </c>
       <c r="D21" s="4"/>
@@ -8732,7 +8725,7 @@
         <v>178</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="9" t="s">
         <v>163</v>
       </c>
       <c r="D22" s="4"/>
@@ -8745,7 +8738,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D23" s="4"/>
@@ -8758,7 +8751,7 @@
         <v>118</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="9" t="s">
         <v>165</v>
       </c>
       <c r="D24" s="4"/>
@@ -8771,7 +8764,7 @@
         <v>119</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="9" t="s">
         <v>166</v>
       </c>
       <c r="D25" s="4"/>
@@ -8784,7 +8777,7 @@
         <v>120</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="9" t="s">
         <v>167</v>
       </c>
       <c r="D26" s="4"/>
@@ -8797,7 +8790,7 @@
         <v>211</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="9" t="s">
         <v>228</v>
       </c>
       <c r="D27" s="4"/>
@@ -8810,7 +8803,7 @@
         <v>212</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="9" t="s">
         <v>229</v>
       </c>
       <c r="D28" s="4"/>
@@ -8823,7 +8816,7 @@
         <v>213</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="9" t="s">
         <v>168</v>
       </c>
       <c r="D29" s="4"/>
@@ -8832,7 +8825,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="9" t="s">
         <v>230</v>
       </c>
       <c r="D30" s="4"/>
@@ -8841,7 +8834,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="9" t="s">
         <v>231</v>
       </c>
       <c r="D31" s="4"/>
@@ -8850,7 +8843,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="9" t="s">
         <v>232</v>
       </c>
       <c r="D32" s="4"/>
@@ -8861,7 +8854,7 @@
     <row r="33" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="9" t="s">
         <v>169</v>
       </c>
       <c r="D33" s="4"/>
@@ -8870,7 +8863,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="9" t="s">
         <v>170</v>
       </c>
       <c r="D34" s="4"/>
@@ -8879,7 +8872,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="9" t="s">
         <v>233</v>
       </c>
       <c r="D35" s="4"/>
@@ -8888,7 +8881,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="9" t="s">
         <v>171</v>
       </c>
       <c r="D36" s="4"/>
@@ -8897,7 +8890,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="9" t="s">
         <v>234</v>
       </c>
       <c r="D37" s="4"/>
@@ -8906,7 +8899,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="9" t="s">
         <v>235</v>
       </c>
       <c r="D38" s="4"/>
@@ -8915,7 +8908,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="9" t="s">
         <v>236</v>
       </c>
       <c r="D39" s="4"/>
@@ -8924,7 +8917,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="9" t="s">
         <v>172</v>
       </c>
       <c r="D40" s="4"/>
@@ -8933,7 +8926,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="9" t="s">
         <v>173</v>
       </c>
       <c r="D41" s="4"/>
@@ -8942,7 +8935,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="9" t="s">
         <v>237</v>
       </c>
       <c r="D42" s="4"/>
@@ -8951,7 +8944,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="9" t="s">
         <v>238</v>
       </c>
       <c r="D43" s="4"/>
@@ -8962,7 +8955,7 @@
     <row r="44" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D44" s="4"/>
@@ -8973,7 +8966,7 @@
     <row r="45" spans="1:5">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="4"/>
@@ -8984,7 +8977,7 @@
     <row r="46" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="4"/>
@@ -8995,7 +8988,7 @@
     <row r="47" spans="1:5">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="4"/>
@@ -9006,7 +8999,7 @@
     <row r="48" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="4"/>
@@ -9017,7 +9010,7 @@
     <row r="49" spans="1:6">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="4"/>
@@ -9028,7 +9021,7 @@
     <row r="50" spans="1:6">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D50" s="4"/>
@@ -9039,7 +9032,7 @@
     <row r="51" spans="1:6">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="4"/>
@@ -9050,7 +9043,7 @@
     <row r="52" spans="1:6">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="9" t="s">
         <v>239</v>
       </c>
       <c r="D52" s="4"/>
@@ -9061,7 +9054,7 @@
     <row r="53" spans="1:6">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="4"/>
@@ -9083,7 +9076,7 @@
     <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="9" t="s">
         <v>179</v>
       </c>
       <c r="D55" s="4"/>
@@ -9094,7 +9087,7 @@
     <row r="56" spans="1:6">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="9" t="s">
         <v>180</v>
       </c>
       <c r="D56" s="4"/>
@@ -9108,7 +9101,7 @@
     <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="9" t="s">
         <v>181</v>
       </c>
       <c r="D57" s="4"/>
@@ -9122,7 +9115,7 @@
     <row r="58" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="9" t="s">
         <v>182</v>
       </c>
       <c r="D58" s="4"/>
@@ -9133,7 +9126,7 @@
     <row r="59" spans="1:6">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="9" t="s">
         <v>183</v>
       </c>
       <c r="D59" s="4"/>
@@ -9144,7 +9137,7 @@
     <row r="60" spans="1:6">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D60" s="4"/>
@@ -9155,7 +9148,7 @@
     <row r="61" spans="1:6">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="9" t="s">
         <v>185</v>
       </c>
       <c r="D61" s="4"/>
@@ -9166,7 +9159,7 @@
     <row r="62" spans="1:6">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="9" t="s">
         <v>186</v>
       </c>
       <c r="D62" s="4"/>
@@ -9177,7 +9170,7 @@
     <row r="63" spans="1:6">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="9" t="s">
         <v>187</v>
       </c>
       <c r="D63" s="4"/>
@@ -9191,7 +9184,7 @@
     <row r="64" spans="1:6">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="9" t="s">
         <v>188</v>
       </c>
       <c r="D64" s="4"/>
@@ -9202,7 +9195,7 @@
     <row r="65" spans="1:6">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="9" t="s">
         <v>189</v>
       </c>
       <c r="D65" s="4"/>
@@ -9213,7 +9206,7 @@
     <row r="66" spans="1:6">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="9" t="s">
         <v>190</v>
       </c>
       <c r="D66" s="4"/>
@@ -9224,7 +9217,7 @@
     <row r="67" spans="1:6">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="9" t="s">
         <v>191</v>
       </c>
       <c r="D67" s="4"/>
@@ -9235,7 +9228,7 @@
     <row r="68" spans="1:6">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="9" t="s">
         <v>241</v>
       </c>
       <c r="D68" s="4"/>
@@ -9246,7 +9239,7 @@
     <row r="69" spans="1:6">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D69" s="4"/>
@@ -9257,7 +9250,7 @@
     <row r="70" spans="1:6">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="9" t="s">
         <v>192</v>
       </c>
       <c r="D70" s="4"/>
@@ -9268,7 +9261,7 @@
     <row r="71" spans="1:6">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="9" t="s">
         <v>243</v>
       </c>
       <c r="D71" s="4"/>
@@ -9279,7 +9272,7 @@
     <row r="72" spans="1:6" ht="20">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D72" s="4"/>
@@ -9293,7 +9286,7 @@
     <row r="73" spans="1:6">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="9" t="s">
         <v>194</v>
       </c>
       <c r="D73" s="4"/>
@@ -9301,7 +9294,7 @@
     <row r="74" spans="1:6">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="9" t="s">
         <v>195</v>
       </c>
       <c r="D74" s="4"/>
@@ -9309,7 +9302,7 @@
     <row r="75" spans="1:6">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="9" t="s">
         <v>244</v>
       </c>
       <c r="D75" s="4"/>
@@ -9317,7 +9310,7 @@
     <row r="76" spans="1:6">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="9" t="s">
         <v>245</v>
       </c>
       <c r="D76" s="4"/>
@@ -9325,7 +9318,7 @@
     <row r="77" spans="1:6">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="9" t="s">
         <v>196</v>
       </c>
       <c r="D77" s="4"/>
@@ -9333,7 +9326,7 @@
     <row r="78" spans="1:6">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="9" t="s">
         <v>197</v>
       </c>
       <c r="D78" s="4"/>
@@ -9341,7 +9334,7 @@
     <row r="79" spans="1:6">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="9" t="s">
         <v>198</v>
       </c>
       <c r="D79" s="4"/>
@@ -9349,7 +9342,7 @@
     <row r="80" spans="1:6">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="9" t="s">
         <v>199</v>
       </c>
       <c r="D80" s="4"/>
@@ -9357,7 +9350,7 @@
     <row r="81" spans="1:5">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D81" s="4"/>
@@ -9365,7 +9358,7 @@
     <row r="82" spans="1:5">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="9" t="s">
         <v>201</v>
       </c>
       <c r="D82" s="4"/>
@@ -9373,7 +9366,7 @@
     <row r="83" spans="1:5">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="9" t="s">
         <v>202</v>
       </c>
       <c r="D83" s="4"/>
@@ -9381,7 +9374,7 @@
     <row r="84" spans="1:5">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="9" t="s">
         <v>203</v>
       </c>
       <c r="D84" s="4"/>
@@ -9389,7 +9382,7 @@
     <row r="85" spans="1:5">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="9" t="s">
         <v>204</v>
       </c>
       <c r="D85" s="4"/>
@@ -9397,7 +9390,7 @@
     <row r="86" spans="1:5">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="9" t="s">
         <v>205</v>
       </c>
       <c r="D86" s="4"/>
@@ -9405,7 +9398,7 @@
     <row r="87" spans="1:5">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="9" t="s">
         <v>206</v>
       </c>
       <c r="D87" s="4"/>
@@ -9413,7 +9406,7 @@
     <row r="88" spans="1:5">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="9" t="s">
         <v>207</v>
       </c>
       <c r="D88" s="4"/>
@@ -9421,7 +9414,7 @@
     <row r="89" spans="1:5">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="9" t="s">
         <v>208</v>
       </c>
       <c r="D89" s="4"/>
@@ -9429,7 +9422,7 @@
     <row r="90" spans="1:5">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="9" t="s">
         <v>209</v>
       </c>
       <c r="D90" s="4"/>
@@ -9437,7 +9430,7 @@
     <row r="91" spans="1:5">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="9" t="s">
         <v>134</v>
       </c>
       <c r="D91" s="4"/>
